--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oferhazut/GitHub/ProjectB/sea_thru/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8219959-818C-7146-AD27-0128C1FFF7DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1412E64A-D4A7-C341-A28F-F4B87234B298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{FB48B73E-016A-0449-887E-485C14F77E17}"/>
+    <workbookView xWindow="-27340" yWindow="-2920" windowWidth="28040" windowHeight="17040" xr2:uid="{FB48B73E-016A-0449-887E-485C14F77E17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
   </si>
   <si>
     <t>D3</t>
@@ -125,9 +128,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,16 +446,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5094F18-7DCD-3B4A-8A0D-72F3603F23F6}">
-  <dimension ref="B1:P11"/>
+  <dimension ref="B1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="P12" sqref="B1:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
@@ -460,58 +464,59 @@
     <col min="12" max="12" width="4.5" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
       <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
       <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
         <v>10</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>9</v>
-      </c>
-      <c r="O2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
@@ -519,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1">
         <v>1.02</v>
@@ -557,7 +562,7 @@
       <c r="O3" s="1">
         <v>9.0827000000000009</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="2">
         <v>10</v>
       </c>
     </row>
@@ -566,46 +571,46 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1">
-        <v>1.04</v>
+        <v>1.4978</v>
       </c>
       <c r="E4" s="1">
-        <v>3.98</v>
+        <v>5.7469999999999999</v>
       </c>
       <c r="F4" s="1">
-        <v>3.2</v>
+        <v>6.1943000000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>9.8699999999999992</v>
+        <v>9.298</v>
       </c>
       <c r="H4" s="1">
-        <v>1.46</v>
+        <v>1.4406000000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>4.78</v>
+        <v>6.0796000000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>4.1100000000000003</v>
+        <v>7.0307000000000004</v>
       </c>
       <c r="K4" s="1">
-        <v>9.09</v>
+        <v>9.8449000000000009</v>
       </c>
       <c r="L4" s="1">
-        <v>3.8477000000000001</v>
+        <v>2.9697</v>
       </c>
       <c r="M4" s="1">
-        <v>5.0961999999999996</v>
+        <v>5.4733000000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>5.1711999999999998</v>
+        <v>5.4053000000000004</v>
       </c>
       <c r="O4" s="1">
-        <v>6.7302</v>
-      </c>
-      <c r="P4" s="1">
-        <v>25</v>
+        <v>10.6524</v>
+      </c>
+      <c r="P4" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
@@ -613,46 +618,46 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
-        <v>0.34</v>
+        <v>1.04</v>
       </c>
       <c r="E5" s="1">
-        <v>1.34</v>
+        <v>3.98</v>
       </c>
       <c r="F5" s="1">
-        <v>1.37</v>
+        <v>3.2</v>
       </c>
       <c r="G5" s="1">
-        <v>2.87</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="H5" s="1">
-        <v>0.4</v>
+        <v>1.46</v>
       </c>
       <c r="I5" s="1">
-        <v>1.44</v>
+        <v>4.78</v>
       </c>
       <c r="J5" s="1">
-        <v>1.49</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="K5" s="1">
-        <v>3.58</v>
+        <v>9.09</v>
       </c>
       <c r="L5" s="1">
-        <v>2.0306999999999999</v>
+        <v>3.8477000000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>3.1059999999999999</v>
+        <v>5.0961999999999996</v>
       </c>
       <c r="N5" s="1">
-        <v>2.9510999999999998</v>
+        <v>5.1711999999999998</v>
       </c>
       <c r="O5" s="1">
-        <v>4.4118000000000004</v>
-      </c>
-      <c r="P5" s="1">
-        <v>10</v>
+        <v>6.7302</v>
+      </c>
+      <c r="P5" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
@@ -660,87 +665,93 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1">
-        <v>0.72</v>
+        <v>0.34</v>
       </c>
       <c r="E6" s="1">
-        <v>3.04</v>
+        <v>1.34</v>
       </c>
       <c r="F6" s="1">
-        <v>1.92</v>
+        <v>1.37</v>
       </c>
       <c r="G6" s="1">
-        <v>13.3</v>
+        <v>2.87</v>
       </c>
       <c r="H6" s="1">
-        <v>1.054</v>
+        <v>0.4</v>
       </c>
       <c r="I6" s="1">
-        <v>4.2649999999999997</v>
+        <v>1.44</v>
       </c>
       <c r="J6" s="1">
-        <v>2.4117000000000002</v>
+        <v>1.49</v>
       </c>
       <c r="K6" s="1">
-        <v>17.2044</v>
+        <v>3.58</v>
       </c>
       <c r="L6" s="1">
-        <v>1.0270999999999999</v>
+        <v>2.0306999999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>4.8448000000000002</v>
+        <v>3.1059999999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>5.2934000000000001</v>
+        <v>2.9510999999999998</v>
       </c>
       <c r="O6" s="1">
-        <v>6.9104000000000001</v>
-      </c>
-      <c r="P6" s="1">
-        <v>43</v>
+        <v>4.4118000000000004</v>
+      </c>
+      <c r="P6" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.72</v>
       </c>
       <c r="E7" s="1">
-        <v>3.29</v>
+        <v>3.04</v>
       </c>
       <c r="F7" s="1">
-        <v>2.2000000000000002</v>
+        <v>1.92</v>
       </c>
       <c r="G7" s="1">
-        <v>12.6</v>
+        <v>13.3</v>
       </c>
       <c r="H7" s="1">
-        <v>1.1067</v>
+        <v>1.054</v>
       </c>
       <c r="I7" s="1">
-        <v>4.0324</v>
+        <v>4.2649999999999997</v>
       </c>
       <c r="J7" s="1">
-        <v>2.6934999999999998</v>
+        <v>2.4117000000000002</v>
       </c>
       <c r="K7" s="1">
-        <v>14.021699999999999</v>
+        <v>17.2044</v>
       </c>
       <c r="L7" s="1">
-        <v>1.7171000000000001</v>
+        <v>1.0270999999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>5.2203999999999997</v>
+        <v>4.8448000000000002</v>
       </c>
       <c r="N7" s="1">
-        <v>5.2710999999999997</v>
+        <v>5.2934000000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>7.5606999999999998</v>
+        <v>6.9104000000000001</v>
+      </c>
+      <c r="P7" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
@@ -748,40 +759,40 @@
         <v>13</v>
       </c>
       <c r="D8" s="1">
-        <v>0.51</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E8" s="1">
-        <v>2.94</v>
+        <v>3.29</v>
       </c>
       <c r="F8" s="1">
-        <v>1.89</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G8" s="1">
-        <v>13.04</v>
+        <v>12.6</v>
       </c>
       <c r="H8" s="1">
-        <v>0.81620000000000004</v>
+        <v>1.1067</v>
       </c>
       <c r="I8" s="1">
-        <v>2.6440000000000001</v>
+        <v>4.0324</v>
       </c>
       <c r="J8" s="1">
-        <v>1.4565999999999999</v>
+        <v>2.6934999999999998</v>
       </c>
       <c r="K8" s="1">
-        <v>18.555499999999999</v>
+        <v>14.021699999999999</v>
       </c>
       <c r="L8" s="1">
-        <v>1.9903</v>
+        <v>1.7171000000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>4.2724000000000002</v>
+        <v>5.2203999999999997</v>
       </c>
       <c r="N8" s="1">
-        <v>4.2310999999999996</v>
+        <v>5.2710999999999997</v>
       </c>
       <c r="O8" s="1">
-        <v>6.4683000000000002</v>
+        <v>7.5606999999999998</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
@@ -789,152 +800,193 @@
         <v>14</v>
       </c>
       <c r="D9" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.94</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="G9" s="1">
+        <v>13.04</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.81620000000000004</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2.6440000000000001</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.4565999999999999</v>
+      </c>
+      <c r="K9" s="1">
+        <v>18.555499999999999</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1.9903</v>
+      </c>
+      <c r="M9" s="1">
+        <v>4.2724000000000002</v>
+      </c>
+      <c r="N9" s="1">
+        <v>4.2310999999999996</v>
+      </c>
+      <c r="O9" s="1">
+        <v>6.4683000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1">
         <v>0.43</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E10" s="1">
         <v>3.03</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F10" s="1">
         <v>1.96</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G10" s="1">
         <v>11.98</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H10" s="1">
         <v>0.62770000000000004</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I10" s="1">
         <v>3.661</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J10" s="1">
         <v>3.1276000000000002</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K10" s="1">
         <v>19.463100000000001</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L10" s="1">
         <v>0.94240000000000002</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M10" s="1">
         <v>3.5735000000000001</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N10" s="1">
         <v>3.8786999999999998</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O10" s="1">
         <v>6.2290000000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10">
-        <f>SUM(D6:D9)/4</f>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D7:D10)/4</f>
         <v>0.55500000000000005</v>
       </c>
-      <c r="E10">
-        <f t="shared" ref="E10:O10" si="0">SUM(E6:E9)/4</f>
+      <c r="E11">
+        <f t="shared" ref="E11:O11" si="0">SUM(E7:E10)/4</f>
         <v>3.0749999999999997</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>1.9924999999999999</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <f t="shared" si="0"/>
         <v>12.73</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <f t="shared" si="0"/>
         <v>0.90115000000000012</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <f t="shared" si="0"/>
         <v>3.6505999999999998</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <f t="shared" si="0"/>
         <v>2.4223499999999998</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <f t="shared" si="0"/>
         <v>17.311174999999999</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <f t="shared" si="0"/>
         <v>1.4192250000000002</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <f t="shared" si="0"/>
         <v>4.4777750000000003</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <f t="shared" si="0"/>
         <v>4.6685749999999997</v>
       </c>
-      <c r="O10">
+      <c r="O11">
         <f t="shared" si="0"/>
         <v>6.7920999999999996</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1">
-        <f>SUM(D3:D9)/7</f>
-        <v>0.66</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" ref="E11:O11" si="1">SUM(E3:E9)/7</f>
-        <v>3.0857142857142859</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="D12" s="1">
+        <f>SUM(D3:D10)/8</f>
+        <v>0.76472499999999988</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" ref="E12:O12" si="1">SUM(E3:E10)/8</f>
+        <v>3.4183750000000002</v>
+      </c>
+      <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>2.2414285714285715</v>
-      </c>
-      <c r="G11" s="1">
+        <v>2.7355375000000004</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="1"/>
-        <v>10.284285714285716</v>
-      </c>
-      <c r="H11" s="1">
+        <v>10.161</v>
+      </c>
+      <c r="H12" s="1">
         <f t="shared" si="1"/>
-        <v>0.8963714285714286</v>
-      </c>
-      <c r="I11" s="1">
+        <v>0.96440000000000015</v>
+      </c>
+      <c r="I12" s="1">
         <f t="shared" si="1"/>
-        <v>3.5174857142857143</v>
-      </c>
-      <c r="J11" s="1">
+        <v>3.8377500000000007</v>
+      </c>
+      <c r="J12" s="1">
         <f t="shared" si="1"/>
-        <v>2.5727714285714285</v>
-      </c>
-      <c r="K11" s="1">
+        <v>3.1300125000000003</v>
+      </c>
+      <c r="K12" s="1">
         <f t="shared" si="1"/>
-        <v>13.183528571428569</v>
-      </c>
-      <c r="L11" s="1">
+        <v>12.7662</v>
+      </c>
+      <c r="L12" s="1">
         <f t="shared" si="1"/>
-        <v>2.0729285714285717</v>
-      </c>
-      <c r="M11" s="1">
+        <v>2.185025</v>
+      </c>
+      <c r="M12" s="1">
         <f t="shared" si="1"/>
-        <v>4.4844714285714291</v>
-      </c>
-      <c r="N11" s="1">
+        <v>4.6080749999999995</v>
+      </c>
+      <c r="N12" s="1">
         <f t="shared" si="1"/>
-        <v>4.5370428571428567</v>
-      </c>
-      <c r="O11" s="1">
+        <v>4.6455750000000009</v>
+      </c>
+      <c r="O12" s="1">
         <f t="shared" si="1"/>
-        <v>6.7704428571428563</v>
+        <v>7.2556874999999996</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oferhazut/GitHub/ProjectB/sea_thru/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1412E64A-D4A7-C341-A28F-F4B87234B298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FAC173-54D0-6E4B-91DF-023222574B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27340" yWindow="-2920" windowWidth="28040" windowHeight="17040" xr2:uid="{FB48B73E-016A-0449-887E-485C14F77E17}"/>
+    <workbookView xWindow="-28040" yWindow="-1900" windowWidth="28040" windowHeight="17040" xr2:uid="{FB48B73E-016A-0449-887E-485C14F77E17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5094F18-7DCD-3B4A-8A0D-72F3603F23F6}">
-  <dimension ref="B1:P12"/>
+  <dimension ref="B1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="B1:P12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -989,6 +989,188 @@
         <v>7.2556874999999996</v>
       </c>
     </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="G16" s="1">
+        <v>1.4978</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5.7469999999999999</v>
+      </c>
+      <c r="I16" s="1">
+        <v>6.1943000000000001</v>
+      </c>
+      <c r="J16" s="1">
+        <v>9.298</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1.4406000000000001</v>
+      </c>
+      <c r="L16" s="1">
+        <v>6.0796000000000001</v>
+      </c>
+      <c r="M16" s="1">
+        <v>7.0307000000000004</v>
+      </c>
+      <c r="N16" s="1">
+        <v>9.8449000000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G17" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3.98</v>
+      </c>
+      <c r="I17" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="L17" s="1">
+        <v>4.78</v>
+      </c>
+      <c r="M17" s="1">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="N17" s="1">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="18" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G18" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.34</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.37</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2.87</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="N18" s="1">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="19" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G19" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3.04</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="J19" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1.054</v>
+      </c>
+      <c r="L19" s="1">
+        <v>4.2649999999999997</v>
+      </c>
+      <c r="M19" s="1">
+        <v>2.4117000000000002</v>
+      </c>
+      <c r="N19" s="1">
+        <v>17.2044</v>
+      </c>
+    </row>
+    <row r="20" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G20" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J20" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1.1067</v>
+      </c>
+      <c r="L20" s="1">
+        <v>4.0324</v>
+      </c>
+      <c r="M20" s="1">
+        <v>2.6934999999999998</v>
+      </c>
+      <c r="N20" s="1">
+        <v>14.021699999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G21" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2.94</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="J21" s="1">
+        <v>13.04</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.81620000000000004</v>
+      </c>
+      <c r="L21" s="1">
+        <v>2.6440000000000001</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1.4565999999999999</v>
+      </c>
+      <c r="N21" s="1">
+        <v>18.555499999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G22" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3.03</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="J22" s="1">
+        <v>11.98</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.62770000000000004</v>
+      </c>
+      <c r="L22" s="1">
+        <v>3.661</v>
+      </c>
+      <c r="M22" s="1">
+        <v>3.1276000000000002</v>
+      </c>
+      <c r="N22" s="1">
+        <v>19.463100000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
